--- a/data/3-analysis/output-results/tables/institution-prospective-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/institution-prospective-2023-11-28.xlsx
@@ -942,630 +942,630 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Oslo University Hospital</t>
+          <t>Örebro University</t>
         </is>
       </c>
       <c r="B27">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>56.3</v>
+        <v>6.2</v>
       </c>
       <c r="E27">
-        <v>45.9</v>
+        <v>0.3</v>
       </c>
       <c r="F27">
-        <v>66.3</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Oulu University Hospital</t>
+          <t>Örebro University Hospital</t>
         </is>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>62.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sahlgrenska University Hospital</t>
+          <t>Oslo University Hospital</t>
         </is>
       </c>
       <c r="B29">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>38.2</v>
+        <v>56.3</v>
       </c>
       <c r="E29">
-        <v>23.9</v>
+        <v>45.9</v>
       </c>
       <c r="F29">
-        <v>55.00000000000001</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Skane University Hospital</t>
+          <t>Oulu University Hospital</t>
         </is>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>42.9</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>21.4</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>67.40000000000001</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>St. Olav’s University Hospital</t>
+          <t>Sahlgrenska University Hospital</t>
         </is>
       </c>
       <c r="B31">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>69.59999999999999</v>
+        <v>38.2</v>
       </c>
       <c r="E31">
-        <v>49.1</v>
+        <v>23.9</v>
       </c>
       <c r="F31">
-        <v>84.39999999999999</v>
+        <v>55.00000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Steno Diabetes Center Copenhagen</t>
+          <t>Skane University Hospital</t>
         </is>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>57.1</v>
+        <v>42.9</v>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>21.4</v>
       </c>
       <c r="F32">
-        <v>84.2</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Stockholm South General Hospital</t>
+          <t>St. Olav’s University Hospital</t>
         </is>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>33.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E33">
-        <v>1.7</v>
+        <v>49.1</v>
       </c>
       <c r="F33">
-        <v>88.2</v>
+        <v>84.39999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tampere University Hospital</t>
+          <t>Steno Diabetes Center Copenhagen</t>
         </is>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34">
-        <v>26.7</v>
+        <v>57.1</v>
       </c>
       <c r="E34">
-        <v>10.9</v>
+        <v>25</v>
       </c>
       <c r="F34">
-        <v>52</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>The National University Hospital of Iceland</t>
+          <t>Stockholm South General Hospital</t>
         </is>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="E35">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="F35">
-        <v>97.39999999999999</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Turku University Hospital</t>
+          <t>Tampere University Hospital</t>
         </is>
       </c>
       <c r="B36">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>66.7</v>
+        <v>26.7</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>10.9</v>
       </c>
       <c r="F36">
-        <v>79.40000000000001</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UiT The Arctic University of Norway</t>
+          <t>The National University Hospital of Iceland</t>
         </is>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>46.2</v>
+        <v>50</v>
       </c>
       <c r="E37">
-        <v>23.2</v>
+        <v>2.6</v>
       </c>
       <c r="F37">
-        <v>70.89999999999999</v>
+        <v>97.39999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Umeå University</t>
+          <t>Turku University Hospital</t>
         </is>
       </c>
       <c r="B38">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>55</v>
+        <v>66.7</v>
       </c>
       <c r="E38">
-        <v>39.8</v>
+        <v>51</v>
       </c>
       <c r="F38">
-        <v>69.3</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>University Hospital of North Norway</t>
+          <t>UiT The Arctic University of Norway</t>
         </is>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>70.59999999999999</v>
+        <v>46.2</v>
       </c>
       <c r="E39">
-        <v>46.9</v>
+        <v>23.2</v>
       </c>
       <c r="F39">
-        <v>86.7</v>
+        <v>70.89999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>University Hospital of Umeå</t>
+          <t>Umeå University</t>
         </is>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>39.8</v>
       </c>
       <c r="F40">
-        <v>94.89999999999999</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>University of Bergen</t>
+          <t>University Hospital of North Norway</t>
         </is>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>43.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E41">
-        <v>27.4</v>
+        <v>46.9</v>
       </c>
       <c r="F41">
-        <v>60.8</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>University of Copenhagen</t>
+          <t>University Hospital of Umeå</t>
         </is>
       </c>
       <c r="B42">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>39.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>60.09999999999999</v>
+        <v>94.89999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>University of Eastern Finland</t>
+          <t>University of Bergen</t>
         </is>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>58.3</v>
+        <v>43.3</v>
       </c>
       <c r="E43">
-        <v>32</v>
+        <v>27.4</v>
       </c>
       <c r="F43">
-        <v>80.7</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>University of Helsinki</t>
+          <t>University of Copenhagen</t>
         </is>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D44">
-        <v>52.9</v>
+        <v>50</v>
       </c>
       <c r="E44">
-        <v>31</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="F44">
-        <v>73.8</v>
+        <v>60.09999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>University of Iceland</t>
+          <t>University of Eastern Finland</t>
         </is>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>58.3</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F45">
-        <v>62.4</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>University of Oslo</t>
+          <t>University of Helsinki</t>
         </is>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>57.1</v>
+        <v>52.9</v>
       </c>
       <c r="E46">
-        <v>36.5</v>
+        <v>31</v>
       </c>
       <c r="F46">
-        <v>75.5</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>University of Oulu</t>
+          <t>University of Iceland</t>
         </is>
       </c>
       <c r="B47">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>26.3</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>11.8</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>48.8</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>University of Southern Denmark</t>
+          <t>University of Oslo</t>
         </is>
       </c>
       <c r="B48">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>54.8</v>
+        <v>57.1</v>
       </c>
       <c r="E48">
-        <v>39.90000000000001</v>
+        <v>36.5</v>
       </c>
       <c r="F48">
-        <v>68.8</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>University of Tampere</t>
+          <t>University of Oulu</t>
         </is>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>12.5</v>
+        <v>26.3</v>
       </c>
       <c r="E49">
-        <v>0.6</v>
+        <v>11.8</v>
       </c>
       <c r="F49">
-        <v>47.09999999999999</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>University of Turku</t>
+          <t>University of Southern Denmark</t>
         </is>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D50">
-        <v>43.8</v>
+        <v>54.8</v>
       </c>
       <c r="E50">
-        <v>23.1</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="F50">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Uppsala Academic Hospital</t>
+          <t>University of Tampere</t>
         </is>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>16.7</v>
+        <v>12.5</v>
       </c>
       <c r="E51">
-        <v>0.8999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F51">
-        <v>56.39999999999999</v>
+        <v>47.09999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Uppsala University</t>
+          <t>University of Turku</t>
         </is>
       </c>
       <c r="B52">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="E52">
-        <v>29.9</v>
+        <v>23.1</v>
       </c>
       <c r="F52">
-        <v>59</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Zealand University Hospital</t>
+          <t>Uppsala Academic Hospital</t>
         </is>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>57.1</v>
+        <v>16.7</v>
       </c>
       <c r="E53">
-        <v>32.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F53">
-        <v>78.60000000000001</v>
+        <v>56.39999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Örebro University</t>
+          <t>Uppsala University</t>
         </is>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>6.2</v>
+        <v>43.9</v>
       </c>
       <c r="E54">
-        <v>0.3</v>
+        <v>29.9</v>
       </c>
       <c r="F54">
-        <v>28.3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Örebro University Hospital</t>
+          <t>Zealand University Hospital</t>
         </is>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>57.1</v>
+      </c>
+      <c r="E55">
+        <v>32.6</v>
+      </c>
+      <c r="F55">
+        <v>78.60000000000001</v>
       </c>
     </row>
     <row r="56">
